--- a/dict.xlsx
+++ b/dict.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,900 +468,1340 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>avhengig</t>
+          <t>alvorlig</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dependent</t>
+          <t>serious</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Han er avhengig av kaffe om morgenen.</t>
+          <t>Situasjonen er alvorlig, og vi må handle raskt.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>He is dependent on coffee in the morning.</t>
+          <t>The situation is serious, and we need to act quickly.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>avslørt</t>
+          <t>angriper</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>revealed, exposed</t>
+          <t>attacker</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Hans hemmelige plan ble avslørt.</t>
+          <t>Løven angriper byttet sitt.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>His secret plan was revealed.</t>
+          <t>The lion attacks its prey.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>bedrager</t>
+          <t>avhengig</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>fraudster</t>
+          <t>dependent</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Politiet arresterte bedrageren som hadde stjålet tusenvis av kroner.</t>
+          <t>Han er avhengig av kaffe om morgenen.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The police arrested the fraudster who had stolen thousands of kroner.</t>
+          <t>He is dependent on coffee in the morning.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>benyttet</t>
+          <t>avslørt</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>used</t>
+          <t>revealed, exposed</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Han benyttet anledningen til å takke alle involverte.</t>
+          <t>Hans hemmelige plan ble avslørt.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>He used the opportunity to thank everyone involved.</t>
+          <t>His secret plan was revealed.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>betydning</t>
+          <t>bedrager</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>meaning, significance</t>
+          <t>fraudster</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ordet har en dyp betydning.</t>
+          <t>Politiet arresterte bedrageren som hadde stjålet tusenvis av kroner.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>The word has a deep meaning.</t>
+          <t>The police arrested the fraudster who had stolen thousands of kroner.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>bidrag</t>
+          <t>benyttet</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>contribution</t>
+          <t>used</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Hans bidrag til prosjektet var avgjørende for dets suksess.</t>
+          <t>Han benyttet anledningen til å takke alle involverte.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>His contribution to the project was crucial for its success.</t>
+          <t>He used the opportunity to thank everyone involved.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>bistand</t>
+          <t>betydning</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>assistance, aid</t>
+          <t>meaning, significance</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vi tilbyr bistand til de som trenger det.</t>
+          <t>Ordet har en dyp betydning.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>We offer assistance to those who need it.</t>
+          <t>The word has a deep meaning.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>blant</t>
+          <t>bidrag</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>among</t>
+          <t>contribution</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Han er populær blant sine venner.</t>
+          <t>Hans bidrag til prosjektet var avgjørende for dets suksess.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>He is popular among his friends.</t>
+          <t>His contribution to the project was crucial for its success.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>dekning</t>
+          <t>bistand</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>coverage</t>
+          <t>assistance, aid</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Det er dårlig dekning i dette området.</t>
+          <t>Vi tilbyr bistand til de som trenger det.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>There is poor coverage in this area.</t>
+          <t>We offer assistance to those who need it.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>distraherte</t>
+          <t>blant</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>distracted</t>
+          <t>among</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Han distraherte meg mens jeg studerte.</t>
+          <t>Han er populær blant sine venner.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>He distracted me while I was studying.</t>
+          <t>He is popular among his friends.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dro</t>
+          <t>byttet</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>went, left</t>
+          <t>exchanged, swapped, or the prey</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Han dro til butikken for å kjøpe melk.</t>
+          <t>Han byttet sin gamle bil mot en ny.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>He went to the store to buy milk.</t>
+          <t>He exchanged his old car for a new one.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>egentlig</t>
+          <t>dekning</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>actually, really</t>
+          <t>coverage</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Han er egentlig fra Norge, men bor i Sverige.</t>
+          <t>Det er dårlig dekning i dette området.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>He is actually from Norway, but lives in Sweden.</t>
+          <t>There is poor coverage in this area.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ensomme</t>
+          <t>deretter</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>lonely</t>
+          <t>thereafter, then</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Han følte seg ensomme i den store byen.</t>
+          <t>Vi gikk hjem, og deretter så vi en film.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>He felt lonely in the big city.</t>
+          <t>We went home, and then we watched a movie.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>enten</t>
+          <t>distraherte</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>either</t>
+          <t>distracted</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Du må velge enten den røde eller den blå bilen.</t>
+          <t>Han distraherte meg mens jeg studerte.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>You have to choose either the red car or the blue car.</t>
+          <t>He distracted me while I was studying.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>erstatte</t>
+          <t>dro</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>replace</t>
+          <t>went, left</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Vi må erstatte den gamle datamaskinen med en ny.</t>
+          <t>Han dro til butikken for å kjøpe melk.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>We need to replace the old computer with a new one.</t>
+          <t>He went to the store to buy milk.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ettermælet</t>
+          <t>egentlig</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>legacy, reputation left behind</t>
+          <t>actually, really</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Hans ettermælet vil alltid bli husket for hans generøsitet.</t>
+          <t>Han er egentlig fra Norge, men bor i Sverige.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>His legacy will always be remembered for his generosity.</t>
+          <t>He is actually from Norway, but lives in Sweden.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>forbindelse</t>
+          <t>enhet</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>connection</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Vi mistet forbindelsen under samtalen.</t>
+          <t>Hver enhet i bygningen har sin egen balkong.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>We lost the connection during the call.</t>
+          <t>Each unit in the building has its own balcony.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>forhandlingene</t>
+          <t>ensomme</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>the negotiations</t>
+          <t>lonely</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Forhandlingene mellom partene tok flere timer.</t>
+          <t>Han følte seg ensomme i den store byen.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>The negotiations between the parties took several hours.</t>
+          <t>He felt lonely in the big city.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>forholde</t>
+          <t>enten</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>relate, behave</t>
+          <t>either</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Han vet ikke hvordan han skal forholde seg til situasjonen.</t>
+          <t>Du må velge enten den røde eller den blå bilen.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>He doesn't know how to behave in the situation.</t>
+          <t>You have to choose either the red car or the blue car.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>fortjener</t>
+          <t>erfaring</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>deserve</t>
+          <t>experience</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Du fortjener en belønning for alt ditt harde arbeid.</t>
+          <t>Han har mye erfaring innen programmering.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>You deserve a reward for all your hard work.</t>
+          <t>He has a lot of experience in programming.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>imponert</t>
+          <t>erstatte</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>impressed</t>
+          <t>replace</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Jeg er veldig imponert over dine ferdigheter.</t>
+          <t>Vi må erstatte den gamle datamaskinen med en ny.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>I am very impressed by your skills.</t>
+          <t>We need to replace the old computer with a new one.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>kjemper</t>
+          <t>ettermælet</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>fights, struggles, or giants (depending on context)</t>
+          <t>legacy, reputation left behind</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Han kjemper mot en vanskelig sykdom.</t>
+          <t>Hans ettermælet vil alltid bli husket for hans generøsitet.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>He is fighting against a difficult illness.</t>
+          <t>His legacy will always be remembered for his generosity.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>likevel</t>
+          <t>forbindelse</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>nevertheless, nonetheless</t>
+          <t>connection</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Han var veldig trøtt, men han gikk på jobb likevel.</t>
+          <t>Vi mistet forbindelsen under samtalen.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>He was very tired, but he went to work nevertheless.</t>
+          <t>We lost the connection during the call.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>markedsføre</t>
+          <t>forhandlingene</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>to market</t>
+          <t>the negotiations</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Bedriften planlegger å markedsføre det nye produktet neste måned.</t>
+          <t>Forhandlingene mellom partene tok flere timer.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>The company plans to market the new product next month.</t>
+          <t>The negotiations between the parties took several hours.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>minner</t>
+          <t>forholde</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>memories</t>
+          <t>relate, behave</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Barndomsminnene mine er veldig kjære for meg.</t>
+          <t>Han vet ikke hvordan han skal forholde seg til situasjonen.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>My childhood memories are very dear to me.</t>
+          <t>He doesn't know how to behave in the situation.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ond</t>
+          <t>fortjener</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>evil, wicked</t>
+          <t>deserve</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Han hadde en ond plan.</t>
+          <t>Du fortjener en belønning for alt ditt harde arbeid.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>He had an evil plan.</t>
+          <t>You deserve a reward for all your hard work.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>opplever</t>
+          <t>hvilket som helst</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>experiences</t>
+          <t>whichever, any</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Hun opplever mye glede i sitt nye jobb.</t>
+          <t>Du kan velge hvilket som helst alternativ.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>She experiences a lot of joy in her new job.</t>
+          <t>You can choose any option.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>overfladiske</t>
+          <t>imponert</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>superficial</t>
+          <t>impressed</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Mange mennesker er bare interessert i overfladiske detaljer.</t>
+          <t>Jeg er veldig imponert over dine ferdigheter.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Many people are only interested in superficial details.</t>
+          <t>I am very impressed by your skills.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>regjering</t>
+          <t>innsats</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>government</t>
+          <t>effort, contribution</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Regjeringen vil innføre nye skatteregler neste år.</t>
+          <t>Din innsats i prosjektet har vært uvurderlig.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>The government will introduce new tax rules next year.</t>
+          <t>Your contribution to the project has been invaluable.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>regning</t>
+          <t>kjedekollisjon</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>bill, calculation</t>
+          <t>pile-up, multiple vehicle collision</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Kan jeg få regningen, vær så snill?</t>
+          <t>Det var en stor kjedekollisjon på motorveien i går.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Can I have the bill, please?</t>
+          <t>There was a big pile-up on the highway yesterday.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>rettferdighet</t>
+          <t>kjemper</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>justice</t>
+          <t>fights, struggles, or giants (depending on context)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Alle fortjener rettferdighet og like muligheter.</t>
+          <t>Han kjemper mot en vanskelig sykdom.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Everyone deserves justice and equal opportunities.</t>
+          <t>He is fighting against a difficult illness.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>spre</t>
+          <t>Klagar</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>to spread</t>
+          <t>Complains</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Han liker å spre glede blant vennene sine.</t>
+          <t>Han klagar alltid på været.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>He likes to spread joy among his friends.</t>
+          <t>He always complains about the weather.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>svekker</t>
+          <t>krever</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>weakens</t>
+          <t>requires, demands</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Denne medisinen svekker immunforsvaret ditt.</t>
+          <t>Denne oppgaven krever mye tid.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>This medicine weakens your immune system.</t>
+          <t>This task requires a lot of time.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>syn</t>
+          <t>likevel</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>sight, vision</t>
+          <t>nevertheless, nonetheless</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Hans syn er ikke like godt som det en gang var.</t>
+          <t>Han var veldig trøtt, men han gikk på jobb likevel.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>His sight is not as good as it once was.</t>
+          <t>He was very tired, but he went to work nevertheless.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>syns</t>
+          <t>lyn</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>to be seen, to seem, to appear</t>
+          <t>lightning</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Det syns at han er glad.</t>
+          <t>Vi så lynet slå ned i treet.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>It appears that he is happy.</t>
+          <t>We saw the lightning strike the tree.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>trist</t>
+          <t>markedsføre</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>to market</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Det er trist å se deg så lei deg.</t>
+          <t>Bedriften planlegger å markedsføre det nye produktet neste måned.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>It is sad to see you so upset.</t>
+          <t>The company plans to market the new product next month.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>uansett</t>
+          <t>minner</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>regardless</t>
+          <t>memories</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Vi går ut uansett været.</t>
+          <t>Barndomsminnene mine er veldig kjære for meg.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>We are going out regardless of the weather.</t>
+          <t>My childhood memories are very dear to me.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>vegne</t>
+          <t>naturligvis</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>on behalf of</t>
+          <t>naturally, of course</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Jeg snakker på vegne av hele teamet.</t>
+          <t>Naturligvis kan du låne bilen min.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>I speak on behalf of the entire team.</t>
+          <t>Naturally, you can borrow my car.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>vekker</t>
+          <t>ond</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>alarm clock</t>
+          <t>evil, wicked</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Jeg setter vekkeren på 7 om morgenen.</t>
+          <t>Han hadde en ond plan.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>I set the alarm clock for 7 in the morning.</t>
+          <t>He had an evil plan.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>virkelig</t>
+          <t>opplever</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>real, really, actual</t>
+          <t>experiences</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Er dette virkelig sant?</t>
+          <t>Hun opplever mye glede i sitt nye jobb.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Is this really true?</t>
+          <t>She experiences a lot of joy in her new job.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>overfladiske</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>superficial</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Mange mennesker er bare interessert i overfladiske detaljer.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Many people are only interested in superficial details.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>oversetter</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>translator</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Han jobber som oversetter.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>He works as a translator.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>regjering</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>government</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Regjeringen vil innføre nye skatteregler neste år.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>The government will introduce new tax rules next year.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>regning</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>bill, calculation</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Kan jeg få regningen, vær så snill?</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Can I have the bill, please?</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>rettferdighet</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>justice</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Alle fortjener rettferdighet og like muligheter.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Everyone deserves justice and equal opportunities.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>skrive inn</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>write in, enter</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Kan du skrive inn navnet ditt her?</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Can you write your name here?</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>spre</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>to spread</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Han liker å spre glede blant vennene sine.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>He likes to spread joy among his friends.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>stjernerytter</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>star rider</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Han drømte om å bli en stjernerytter og reise gjennom galaksene.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>He dreamed of becoming a star rider and traveling through the galaxies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>svekker</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>weakens</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Denne medisinen svekker immunforsvaret ditt.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>This medicine weakens your immune system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>syn</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>sight, vision</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Hans syn er ikke like godt som det en gang var.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>His sight is not as good as it once was.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>synes</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>to think, to seem, to appear</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Jeg synes det er en god idé.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>I think it is a good idea.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>syns</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>to be seen, to seem, to appear</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Det syns at han er glad.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>It appears that he is happy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>trist</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Det er trist å se deg så lei deg.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>It is sad to see you so upset.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>turneringen</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>the tournament</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Turneringen starter neste uke.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>The tournament starts next week.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>uansett</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>regardless</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Vi går ut uansett været.</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>We are going out regardless of the weather.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Utfordrende</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Challenging</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Denne matteoppgaven er veldig utfordrende.</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>This math problem is very challenging.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>uvurderlig</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>invaluable</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Din støtte har vært uvurderlig for meg.</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Your support has been invaluable to me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>vegne</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>on behalf of</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Jeg snakker på vegne av hele teamet.</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>I speak on behalf of the entire team.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>vekker</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>alarm clock</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Jeg setter vekkeren på 7 om morgenen.</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>I set the alarm clock for 7 in the morning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>virkelig</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>real, really, actual</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Er dette virkelig sant?</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Is this really true?</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
           <t>årsaken</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>the reason</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>Årsaken til problemet er ikke kjent.</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>The reason for the problem is not known.</t>
         </is>

--- a/dict.xlsx
+++ b/dict.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,1296 +512,2572 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>avhengig</t>
+          <t>ante</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>dependent</t>
+          <t>to assume or suppose</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Han er avhengig av kaffe om morgenen.</t>
+          <t>Jeg ante ikke at det skulle skje.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>He is dependent on coffee in the morning.</t>
+          <t>I had no idea that was going to happen.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>avslørt</t>
+          <t>avhengig</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>revealed, exposed</t>
+          <t>dependent</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Hans hemmelige plan ble avslørt.</t>
+          <t>Han er avhengig av kaffe om morgenen.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>His secret plan was revealed.</t>
+          <t>He is dependent on coffee in the morning.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>bedrager</t>
+          <t>avslørt</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>fraudster</t>
+          <t>revealed, exposed</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Politiet arresterte bedrageren som hadde stjålet tusenvis av kroner.</t>
+          <t>Hans hemmelige plan ble avslørt.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>The police arrested the fraudster who had stolen thousands of kroner.</t>
+          <t>His secret plan was revealed.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>benyttet</t>
+          <t>bedrager</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>used</t>
+          <t>fraudster</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Han benyttet anledningen til å takke alle involverte.</t>
+          <t>Politiet arresterte bedrageren som hadde stjålet tusenvis av kroner.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>He used the opportunity to thank everyone involved.</t>
+          <t>The police arrested the fraudster who had stolen thousands of kroner.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>betydning</t>
+          <t>benyttet</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>meaning, significance</t>
+          <t>used</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ordet har en dyp betydning.</t>
+          <t>Han benyttet anledningen til å takke alle involverte.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>The word has a deep meaning.</t>
+          <t>He used the opportunity to thank everyone involved.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>bidrag</t>
+          <t>betydning</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>contribution</t>
+          <t>meaning, significance</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Hans bidrag til prosjektet var avgjørende for dets suksess.</t>
+          <t>Ordet har en dyp betydning.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>His contribution to the project was crucial for its success.</t>
+          <t>The word has a deep meaning.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bistand</t>
+          <t>bidrag</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>assistance, aid</t>
+          <t>contribution</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vi tilbyr bistand til de som trenger det.</t>
+          <t>Hans bidrag til prosjektet var avgjørende for dets suksess.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>We offer assistance to those who need it.</t>
+          <t>His contribution to the project was crucial for its success.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>blant</t>
+          <t>bistand</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>among</t>
+          <t>assistance, aid</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Han er populær blant sine venner.</t>
+          <t>Vi tilbyr bistand til de som trenger det.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>He is popular among his friends.</t>
+          <t>We offer assistance to those who need it.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>byttet</t>
+          <t>blant</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>exchanged, swapped, or the prey</t>
+          <t>among</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Han byttet sin gamle bil mot en ny.</t>
+          <t>Han er populær blant sine venner.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>He exchanged his old car for a new one.</t>
+          <t>He is popular among his friends.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>dekning</t>
+          <t>blir</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>coverage</t>
+          <t>becomes</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Det er dårlig dekning i dette området.</t>
+          <t>Hun blir glad når hun ser hunden.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>There is poor coverage in this area.</t>
+          <t>She becomes happy when she sees the dog.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>deretter</t>
+          <t>byttet</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>thereafter, then</t>
+          <t>exchanged, swapped, or the prey</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Vi gikk hjem, og deretter så vi en film.</t>
+          <t>Han byttet sin gamle bil mot en ny.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>We went home, and then we watched a movie.</t>
+          <t>He exchanged his old car for a new one.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>distraherte</t>
+          <t>dekkning</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>distracted</t>
+          <t>coverage</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Han distraherte meg mens jeg studerte.</t>
+          <t>Mobiltelefonen min har dårlig dekkning her.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>He distracted me while I was studying.</t>
+          <t>My mobile phone has poor coverage here.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>dro</t>
+          <t>dekning</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>went, left</t>
+          <t>coverage</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Han dro til butikken for å kjøpe melk.</t>
+          <t>Det er dårlig dekning i dette området.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>He went to the store to buy milk.</t>
+          <t>There is poor coverage in this area.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>egentlig</t>
+          <t>deretter</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>actually, really</t>
+          <t>thereafter, then</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Han er egentlig fra Norge, men bor i Sverige.</t>
+          <t>Vi gikk hjem, og deretter så vi en film.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>He is actually from Norway, but lives in Sweden.</t>
+          <t>We went home, and then we watched a movie.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>enhet</t>
+          <t>distraherte</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>distracted</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Hver enhet i bygningen har sin egen balkong.</t>
+          <t>Han distraherte meg mens jeg studerte.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Each unit in the building has its own balcony.</t>
+          <t>He distracted me while I was studying.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ensomme</t>
+          <t>drar</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>lonely</t>
+          <t>go, leave</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Han følte seg ensomme i den store byen.</t>
+          <t>Hun drar til butikken.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>He felt lonely in the big city.</t>
+          <t>She is going to the store.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>enten</t>
+          <t>dro</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>either</t>
+          <t>went, left</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Du må velge enten den røde eller den blå bilen.</t>
+          <t>Han dro til butikken for å kjøpe melk.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>You have to choose either the red car or the blue car.</t>
+          <t>He went to the store to buy milk.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>erfaring</t>
+          <t>egentelig</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>experience</t>
+          <t>actually, really</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Han har mye erfaring innen programmering.</t>
+          <t>Han er egentlig fra Norge, men bor i Sverige.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>He has a lot of experience in programming.</t>
+          <t>He is actually from Norway, but lives in Sweden.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>erstatte</t>
+          <t>egentlig</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>replace</t>
+          <t>actually, really</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Vi må erstatte den gamle datamaskinen med en ny.</t>
+          <t>Han er egentlig fra Norge, men bor i Sverige.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>We need to replace the old computer with a new one.</t>
+          <t>He is actually from Norway, but lives in Sweden.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ettermælet</t>
+          <t>emner</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>legacy, reputation left behind</t>
+          <t>topics, subjects</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Hans ettermælet vil alltid bli husket for hans generøsitet.</t>
+          <t>Vi diskuterte forskjellige emner i klassen i dag.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>His legacy will always be remembered for his generosity.</t>
+          <t>We discussed various topics in class today.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>forbindelse</t>
+          <t>enda</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>connection</t>
+          <t>yet, still, even</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Vi mistet forbindelsen under samtalen.</t>
+          <t>Han har ikke kommet enda.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>We lost the connection during the call.</t>
+          <t>He has not arrived yet.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>forhandlingene</t>
+          <t>endelig</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>the negotiations</t>
+          <t>finally, at last</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Forhandlingene mellom partene tok flere timer.</t>
+          <t>Endelig er fredagen her!</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>The negotiations between the parties took several hours.</t>
+          <t>Finally, Friday is here!</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>forholde</t>
+          <t>enhet</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>relate, behave</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Han vet ikke hvordan han skal forholde seg til situasjonen.</t>
+          <t>Hver enhet i bygningen har sin egen balkong.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>He doesn't know how to behave in the situation.</t>
+          <t>Each unit in the building has its own balcony.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>fortjener</t>
+          <t>enkel</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>deserve</t>
+          <t>simple, easy</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Du fortjener en belønning for alt ditt harde arbeid.</t>
+          <t>Oppskriften er veldig enkel å følge.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>You deserve a reward for all your hard work.</t>
+          <t>The recipe is very simple to follow.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>hvilket som helst</t>
+          <t>ensomme</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>whichever, any</t>
+          <t>lonely</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Du kan velge hvilket som helst alternativ.</t>
+          <t>Han følte seg ensomme i den store byen.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>You can choose any option.</t>
+          <t>He felt lonely in the big city.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>imponert</t>
+          <t>enten</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>impressed</t>
+          <t>either</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Jeg er veldig imponert over dine ferdigheter.</t>
+          <t>Du må velge enten den røde eller den blå bilen.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>I am very impressed by your skills.</t>
+          <t>You have to choose either the red car or the blue car.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>innsats</t>
+          <t>erfaring</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>effort, contribution</t>
+          <t>experience</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Din innsats i prosjektet har vært uvurderlig.</t>
+          <t>Han har mye erfaring innen programmering.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Your contribution to the project has been invaluable.</t>
+          <t>He has a lot of experience in programming.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>kjedekollisjon</t>
+          <t>erstatte</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pile-up, multiple vehicle collision</t>
+          <t>replace</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Det var en stor kjedekollisjon på motorveien i går.</t>
+          <t>Vi må erstatte den gamle datamaskinen med en ny.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>There was a big pile-up on the highway yesterday.</t>
+          <t>We need to replace the old computer with a new one.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>kjemper</t>
+          <t>ettermælet</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>fights, struggles, or giants (depending on context)</t>
+          <t>legacy, reputation left behind</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Han kjemper mot en vanskelig sykdom.</t>
+          <t>Hans ettermælet vil alltid bli husket for hans generøsitet.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>He is fighting against a difficult illness.</t>
+          <t>His legacy will always be remembered for his generosity.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Klagar</t>
+          <t>forbindelse</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Complains</t>
+          <t>connection</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Han klagar alltid på været.</t>
+          <t>Vi mistet forbindelsen under samtalen.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>He always complains about the weather.</t>
+          <t>We lost the connection during the call.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>krever</t>
+          <t>forhandlingene</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>requires, demands</t>
+          <t>the negotiations</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Denne oppgaven krever mye tid.</t>
+          <t>Forhandlingene mellom partene tok flere timer.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>This task requires a lot of time.</t>
+          <t>The negotiations between the parties took several hours.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>likevel</t>
+          <t>forholde</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>nevertheless, nonetheless</t>
+          <t>relate, behave</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Han var veldig trøtt, men han gikk på jobb likevel.</t>
+          <t>Han vet ikke hvordan han skal forholde seg til situasjonen.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>He was very tired, but he went to work nevertheless.</t>
+          <t>He doesn't know how to behave in the situation.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>lyn</t>
+          <t>forsynt</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>lightning</t>
+          <t>satisfied or having had enough (usually in the context of eating)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Vi så lynet slå ned i treet.</t>
+          <t>Jeg er forsynt, takk.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>We saw the lightning strike the tree.</t>
+          <t>I am satisfied, thank you.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>markedsføre</t>
+          <t>fortjener</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>to market</t>
+          <t>deserve</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Bedriften planlegger å markedsføre det nye produktet neste måned.</t>
+          <t>Du fortjener en belønning for alt ditt harde arbeid.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>The company plans to market the new product next month.</t>
+          <t>You deserve a reward for all your hard work.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>minner</t>
+          <t>forutsatte</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>memories</t>
+          <t>assumed, presupposed</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Barndomsminnene mine er veldig kjære for meg.</t>
+          <t>Han forutsatte at alle var enige før han fortsatte møtet.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>My childhood memories are very dear to me.</t>
+          <t>He assumed that everyone agreed before he continued the meeting.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>naturligvis</t>
+          <t>gjennom</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>naturally, of course</t>
+          <t>through</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Naturligvis kan du låne bilen min.</t>
+          <t>Vi gikk gjennom parken.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Naturally, you can borrow my car.</t>
+          <t>We walked through the park.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ond</t>
+          <t>går mot</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>evil, wicked</t>
+          <t>goes towards, approaches</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Han hadde en ond plan.</t>
+          <t>Han går mot butikken.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>He had an evil plan.</t>
+          <t>He goes towards the store.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>opplever</t>
+          <t>heller</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>experiences</t>
+          <t>rather</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Hun opplever mye glede i sitt nye jobb.</t>
+          <t>Jeg vil heller spise pizza enn pasta.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>She experiences a lot of joy in her new job.</t>
+          <t>I would rather eat pizza than pasta.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>overfladiske</t>
+          <t>hensikt</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>superficial</t>
+          <t>purpose, intention</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Mange mennesker er bare interessert i overfladiske detaljer.</t>
+          <t>Hun gjorde det med god hensikt.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Many people are only interested in superficial details.</t>
+          <t>She did it with good intention.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>oversetter</t>
+          <t>hevder</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>claims</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Han jobber som oversetter.</t>
+          <t>Han hevder at han ikke var der den kvelden.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>He works as a translator.</t>
+          <t>He claims that he was not there that evening.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>regjering</t>
+          <t>hevn</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>government</t>
+          <t>revenge</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Regjeringen vil innføre nye skatteregler neste år.</t>
+          <t>Han søkte hevn etter den store urettferdigheten.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>The government will introduce new tax rules next year.</t>
+          <t>He sought revenge after the great injustice.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>regning</t>
+          <t>Hva slags</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>bill, calculation</t>
+          <t>What kind of</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Kan jeg få regningen, vær så snill?</t>
+          <t>Hva slags mat liker du?</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Can I have the bill, please?</t>
+          <t>What kind of food do you like?</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>rettferdighet</t>
+          <t>hvilket som helst</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>justice</t>
+          <t>whichever, any</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Alle fortjener rettferdighet og like muligheter.</t>
+          <t>Du kan velge hvilket som helst alternativ.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Everyone deserves justice and equal opportunities.</t>
+          <t>You can choose any option.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>skrive inn</t>
+          <t>imponert</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>write in, enter</t>
+          <t>impressed</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Kan du skrive inn navnet ditt her?</t>
+          <t>Jeg er veldig imponert over dine ferdigheter.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Can you write your name here?</t>
+          <t>I am very impressed by your skills.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>spre</t>
+          <t>innfør</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>to spread</t>
+          <t>introduce</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Han liker å spre glede blant vennene sine.</t>
+          <t>Vi må innføre nye regler for å forbedre sikkerheten.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>He likes to spread joy among his friends.</t>
+          <t>We need to introduce new rules to improve safety.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>stjernerytter</t>
+          <t>innsats</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>star rider</t>
+          <t>effort, contribution</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Han drømte om å bli en stjernerytter og reise gjennom galaksene.</t>
+          <t>Din innsats i prosjektet har vært uvurderlig.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>He dreamed of becoming a star rider and traveling through the galaxies.</t>
+          <t>Your contribution to the project has been invaluable.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>svekker</t>
+          <t>kjedekollisjon</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>weakens</t>
+          <t>pile-up, multiple vehicle collision</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Denne medisinen svekker immunforsvaret ditt.</t>
+          <t>Det var en stor kjedekollisjon på motorveien i går.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>This medicine weakens your immune system.</t>
+          <t>There was a big pile-up on the highway yesterday.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>syn</t>
+          <t>kjemper</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>sight, vision</t>
+          <t>fights, struggles, or giants (depending on context)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Hans syn er ikke like godt som det en gang var.</t>
+          <t>Han kjemper mot en vanskelig sykdom.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>His sight is not as good as it once was.</t>
+          <t>He is fighting against a difficult illness.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>synes</t>
+          <t>Klagar</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>to think, to seem, to appear</t>
+          <t>Complains</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Jeg synes det er en god idé.</t>
+          <t>Han klagar alltid på været.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>I think it is a good idea.</t>
+          <t>He always complains about the weather.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>syns</t>
+          <t>klage</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>to be seen, to seem, to appear</t>
+          <t>complain</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Det syns at han er glad.</t>
+          <t>Han liker å klage over været.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>It appears that he is happy.</t>
+          <t>He likes to complain about the weather.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>trist</t>
+          <t>klarte</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>managed</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Det er trist å se deg så lei deg.</t>
+          <t>Hun klarte å løse problemet.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>It is sad to see you so upset.</t>
+          <t>She managed to solve the problem.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>turneringen</t>
+          <t>krav</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>the tournament</t>
+          <t>demand, requirement</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Turneringen starter neste uke.</t>
+          <t>Han stiller høye krav til seg selv.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>The tournament starts next week.</t>
+          <t>He sets high demands on himself.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>uansett</t>
+          <t>krevende</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>regardless</t>
+          <t>demanding</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Vi går ut uansett været.</t>
+          <t>Dette er en veldig krevende oppgave.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>We are going out regardless of the weather.</t>
+          <t>This is a very demanding task.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Utfordrende</t>
+          <t>krever</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Challenging</t>
+          <t>requires, demands</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Denne matteoppgaven er veldig utfordrende.</t>
+          <t>Denne oppgaven krever mye tid.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>This math problem is very challenging.</t>
+          <t>This task requires a lot of time.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>uvurderlig</t>
+          <t>letereter</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>invaluable</t>
+          <t>searching</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Din støtte har vært uvurderlig for meg.</t>
+          <t>Han leter etter nøklene sine.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Your support has been invaluable to me.</t>
+          <t>He is searching for his keys.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>vegne</t>
+          <t>likevel</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>on behalf of</t>
+          <t>nevertheless, nonetheless</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Jeg snakker på vegne av hele teamet.</t>
+          <t>Han var veldig trøtt, men han gikk på jobb likevel.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>I speak on behalf of the entire team.</t>
+          <t>He was very tired, but he went to work nevertheless.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>vekker</t>
+          <t>lyn</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>alarm clock</t>
+          <t>lightning</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Jeg setter vekkeren på 7 om morgenen.</t>
+          <t>Vi så lynet slå ned i treet.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>I set the alarm clock for 7 in the morning.</t>
+          <t>We saw the lightning strike the tree.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>virkelig</t>
+          <t>lynnedslag</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>real, really, actual</t>
+          <t>lightning strike</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Er dette virkelig sant?</t>
+          <t>Under tordenværet så vi et kraftig lynnedslag nær huset.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Is this really true?</t>
+          <t>During the thunderstorm, we saw a powerful lightning strike near the house.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
+          <t>mangler</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>lacks, is missing</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Han mangler en bok.</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>He is missing a book.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>markedsføre</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>to market</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Bedriften planlegger å markedsføre det nye produktet neste måned.</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>The company plans to market the new product next month.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>mener</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>thinks, believes, means</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Hun mener at vi bør dra nå.</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>She thinks that we should leave now.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>menneske</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Hvert menneske er unikt.</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Every human is unique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>minner</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>memories</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Barndomsminnene mine er veldig kjære for meg.</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>My childhood memories are very dear to me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>naturligvis</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>naturally, of course</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Naturligvis kan du låne bilen min.</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Naturally, you can borrow my car.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>nedover</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>downwards</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Vi gikk nedover bakken sammen.</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>We walked down the hill together.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>ond</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>evil, wicked</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Han hadde en ond plan.</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>He had an evil plan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>oppdaget</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>discovered</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Han oppdaget en sjelden fugl i skogen.</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>He discovered a rare bird in the forest.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>opplever</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>experiences</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Hun opplever mye glede i sitt nye jobb.</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>She experiences a lot of joy in her new job.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>oppnådde</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>achieved</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Hun oppnådde sine mål gjennom hardt arbeid.</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>She achieved her goals through hard work.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>overfladiske</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>superficial</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Mange mennesker er bare interessert i overfladiske detaljer.</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Many people are only interested in superficial details.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>oversetter</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>translator</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Han jobber som oversetter.</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>He works as a translator.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>pleier</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>usually do, tend to</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Hun pleier å spise frokost klokka syv.</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>She usually eats breakfast at seven.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>påkjørt av</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>run over by</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Han ble påkjørt av en bil mens han krysset veien.</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>He was run over by a car while crossing the road.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>rammes av</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>be affected by, be hit by</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Mange bedrifter ble hardt rammet av pandemien.</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Many businesses were severely affected by the pandemic.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>regjering</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>government</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Regjeringen vil innføre nye skatteregler neste år.</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>The government will introduce new tax rules next year.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>regn</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>rain</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Det kommer til å regne i dag.</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>It is going to rain today.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>regning</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>bill, calculation</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Kan jeg få regningen, vær så snill?</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Can I have the bill, please?</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>rettferdighet</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>justice</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Alle fortjener rettferdighet og like muligheter.</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Everyone deserves justice and equal opportunities.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>samenlegg</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>jointly, together</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Vi må jobbe sammenlegg for å fullføre prosjektet i tide.</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>We need to work together to complete the project on time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>samlet</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>collected, gathered, total</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Vi samlet inn mye penger til veldedighet.</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>We collected a lot of money for charity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>sammenhengen</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>the context, the connection</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>For å forstå vitsen, må du kjenne til sammenhengen.</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>To understand the joke, you need to know the context.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>seier</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>victory</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Laget feiret sin seier etter kampen.</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>The team celebrated their victory after the match.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>selvsagt</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>of course, naturally</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Selvsagt kan du låne bilen min i morgen.</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Of course, you can borrow my car tomorrow.</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>skjemavelde</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>bureaucracy</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Mange mener at skjemavelde gjør prosesser tregere i offentlige etater.</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Many believe that bureaucracy slows down processes in public agencies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>skred frem</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>surged forward</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Folkemengden skred frem mot scenen i spenning.</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>The crowd surged forward towards the stage in excitement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>skrive inn</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>write in, enter</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Kan du skrive inn navnet ditt her?</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Can you write your name here?</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>slakt av</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>slaughter of</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Bonden forbereder seg på slakt av grisene før vinteren.</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>The farmer is preparing for the slaughter of the pigs before winter.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>slengende</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>swinging, flinging</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Han gikk ned gaten med en slengende gange.</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>He walked down the street with a swinging gait.</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>slå fast</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>to assert, to establish, to determine</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Vi må slå fast hva som faktisk skjedde.</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>We need to determine what actually happened.</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>spre</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>to spread</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Han liker å spre glede blant vennene sine.</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>He likes to spread joy among his friends.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>stjernerytter</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>star rider</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Han drømte om å bli en stjernerytter og reise gjennom galaksene.</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>He dreamed of becoming a star rider and traveling through the galaxies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>større grad</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>greater extent</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Han er involvert i prosjektet i en større grad enn før.</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>He is involved in the project to a greater extent than before.</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>støtte</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Han trenger din støtte for å lykkes.</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>He needs your support to succeed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>sunt bondevett</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>common sense</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Det er sunt bondevett å ta på seg varme klær når det er kaldt ute.</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>It is common sense to wear warm clothes when it is cold outside.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>svekker</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>weakens</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Denne medisinen svekker immunforsvaret ditt.</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>This medicine weakens your immune system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>syn</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>sight, vision</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Hans syn er ikke like godt som det en gang var.</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>His sight is not as good as it once was.</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>synes</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>to think, to seem, to appear</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Jeg synes det er en god idé.</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>I think it is a good idea.</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>syns</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>to be seen, to seem, to appear</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Det syns at han er glad.</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>It appears that he is happy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>temaer</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>themes</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Vi diskuterte ulike temaer i klassen i dag.</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>We discussed various themes in class today.</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>trist</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Det er trist å se deg så lei deg.</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>It is sad to see you so upset.</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>turneringen</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>the tournament</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Turneringen starter neste uke.</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>The tournament starts next week.</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>tør</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>dare</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Tør du å hoppe fra ti-meteren?</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Do you dare to jump from the ten-meter board?</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>uansett</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>regardless</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Vi går ut uansett været.</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>We are going out regardless of the weather.</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>underskudd</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>deficit</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Selskapet rapporterte et stort underskudd forrige kvartal.</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>The company reported a large deficit last quarter.</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>underveis</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>on the way, underway</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Vi kan stoppe og kjøpe mat underveis.</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>We can stop and buy food on the way.</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Utfordrende</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Challenging</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Denne matteoppgaven er veldig utfordrende.</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>This math problem is very challenging.</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>uttrykke</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>to express</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Han brukte musikk til å uttrykke følelsene sine.</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>He used music to express his feelings.</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>uvurderlig</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>invaluable</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Din støtte har vært uvurderlig for meg.</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Your support has been invaluable to me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>vanvittig</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>insane, crazy, incredible</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Han kjørte i en vanvittig fart nedover veien.</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>He drove at an insane speed down the road.</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>vegne</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>on behalf of</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Jeg snakker på vegne av hele teamet.</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>I speak on behalf of the entire team.</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>vekker</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>alarm clock</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Jeg setter vekkeren på 7 om morgenen.</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>I set the alarm clock for 7 in the morning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>vestlig</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>western</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Vinden kommer fra en vestlig retning.</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>The wind is coming from a western direction.</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>virkelig</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>real, really, actual</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Er dette virkelig sant?</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Is this really true?</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>vitenskap</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>science</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Vitenskap hjelper oss å forstå verden bedre.</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Science helps us to understand the world better.</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>vært innom</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>been by, visited, stopped by</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Jeg har vært innom butikken på vei hjem.</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>I stopped by the store on my way home.</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>ånd</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>spirit, ghost</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Han følte en kald ånd passere gjennom rommet.</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>He felt a cold spirit pass through the room.</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
           <t>årsaken</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>the reason</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>Årsaken til problemet er ikke kjent.</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D121" t="inlineStr">
         <is>
           <t>The reason for the problem is not known.</t>
         </is>

--- a/dict.xlsx
+++ b/dict.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,2572 +512,3716 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ante</t>
+          <t>anledningen</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>to assume or suppose</t>
+          <t>the reason</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jeg ante ikke at det skulle skje.</t>
+          <t>Jeg vil gjerne vite anledningen til dette møtet.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>I had no idea that was going to happen.</t>
+          <t>I would like to know the reason for this meeting.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>avhengig</t>
+          <t>Ansette</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>dependent</t>
+          <t>To employ, to hire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Han er avhengig av kaffe om morgenen.</t>
+          <t>Bedriften planlegger å ansette flere ingeniører neste år.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>He is dependent on coffee in the morning.</t>
+          <t>The company plans to hire more engineers next year.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>avslørt</t>
+          <t>ante</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>revealed, exposed</t>
+          <t>to assume or suppose</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Hans hemmelige plan ble avslørt.</t>
+          <t>Jeg ante ikke at det skulle skje.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>His secret plan was revealed.</t>
+          <t>I had no idea that was going to happen.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>bedrager</t>
+          <t>attentatet</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>fraudster</t>
+          <t>the assassination</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Politiet arresterte bedrageren som hadde stjålet tusenvis av kroner.</t>
+          <t>Politiet etterforsker attentatet som skjedde i går.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>The police arrested the fraudster who had stolen thousands of kroner.</t>
+          <t>The police are investigating the assassination that happened yesterday.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>benyttet</t>
+          <t>avfyrer</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>used</t>
+          <t>fires, discharges</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Han benyttet anledningen til å takke alle involverte.</t>
+          <t>Soldaten avfyrer sitt våpen mot målet.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>He used the opportunity to thank everyone involved.</t>
+          <t>The soldier fires his weapon at the target.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>betydning</t>
+          <t>avhengig</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>meaning, significance</t>
+          <t>dependent</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ordet har en dyp betydning.</t>
+          <t>Han er avhengig av kaffe om morgenen.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>The word has a deep meaning.</t>
+          <t>He is dependent on coffee in the morning.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bidrag</t>
+          <t>avslørt</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>contribution</t>
+          <t>revealed, exposed</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Hans bidrag til prosjektet var avgjørende for dets suksess.</t>
+          <t>Hans hemmelige plan ble avslørt.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>His contribution to the project was crucial for its success.</t>
+          <t>His secret plan was revealed.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>bistand</t>
+          <t>bedrager</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>assistance, aid</t>
+          <t>fraudster</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Vi tilbyr bistand til de som trenger det.</t>
+          <t>Politiet arresterte bedrageren som hadde stjålet tusenvis av kroner.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>We offer assistance to those who need it.</t>
+          <t>The police arrested the fraudster who had stolen thousands of kroner.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>blant</t>
+          <t>Behov</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>among</t>
+          <t>Need, requirement</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Han er populær blant sine venner.</t>
+          <t>Vi må vurdere barnets behov først.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>He is popular among his friends.</t>
+          <t>We must consider the child's needs first.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>blir</t>
+          <t>benyttet</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>becomes</t>
+          <t>used</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Hun blir glad når hun ser hunden.</t>
+          <t>Han benyttet anledningen til å takke alle involverte.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>She becomes happy when she sees the dog.</t>
+          <t>He used the opportunity to thank everyone involved.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>byttet</t>
+          <t>Bestemme</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>exchanged, swapped, or the prey</t>
+          <t>to decide, determine</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Han byttet sin gamle bil mot en ny.</t>
+          <t>Du må bestemme deg snart.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>He exchanged his old car for a new one.</t>
+          <t>You have to decide soon.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>dekkning</t>
+          <t>betydning</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>coverage</t>
+          <t>meaning, significance</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mobiltelefonen min har dårlig dekkning her.</t>
+          <t>Ordet har en dyp betydning.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>My mobile phone has poor coverage here.</t>
+          <t>The word has a deep meaning.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>dekning</t>
+          <t>bidrag</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>coverage</t>
+          <t>contribution</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Det er dårlig dekning i dette området.</t>
+          <t>Hans bidrag til prosjektet var avgjørende for dets suksess.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>There is poor coverage in this area.</t>
+          <t>His contribution to the project was crucial for its success.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>deretter</t>
+          <t>bistand</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>thereafter, then</t>
+          <t>assistance, aid</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Vi gikk hjem, og deretter så vi en film.</t>
+          <t>Vi tilbyr bistand til de som trenger det.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>We went home, and then we watched a movie.</t>
+          <t>We offer assistance to those who need it.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>distraherte</t>
+          <t>blant</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>distracted</t>
+          <t>among</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Han distraherte meg mens jeg studerte.</t>
+          <t>Han er populær blant sine venner.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>He distracted me while I was studying.</t>
+          <t>He is popular among his friends.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>drar</t>
+          <t>blir</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>go, leave</t>
+          <t>becomes</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Hun drar til butikken.</t>
+          <t>Hun blir glad når hun ser hunden.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>She is going to the store.</t>
+          <t>She becomes happy when she sees the dog.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>dro</t>
+          <t>Bunns</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>went, left</t>
+          <t>Bottoms</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Han dro til butikken for å kjøpe melk.</t>
+          <t>Vi fant mange interessante ting på bunns av innsjøen.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>He went to the store to buy milk.</t>
+          <t>We found many interesting things at the bottom of the lake.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>egentelig</t>
+          <t>byttet</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>actually, really</t>
+          <t>exchanged, swapped, or the prey</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Han er egentlig fra Norge, men bor i Sverige.</t>
+          <t>Han byttet sin gamle bil mot en ny.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>He is actually from Norway, but lives in Sweden.</t>
+          <t>He exchanged his old car for a new one.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>egentlig</t>
+          <t>dekkning</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>actually, really</t>
+          <t>coverage</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Han er egentlig fra Norge, men bor i Sverige.</t>
+          <t>Mobiltelefonen min har dårlig dekkning her.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>He is actually from Norway, but lives in Sweden.</t>
+          <t>My mobile phone has poor coverage here.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>emner</t>
+          <t>dekning</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>topics, subjects</t>
+          <t>coverage</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Vi diskuterte forskjellige emner i klassen i dag.</t>
+          <t>Det er dårlig dekning i dette området.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>We discussed various topics in class today.</t>
+          <t>There is poor coverage in this area.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>enda</t>
+          <t>deretter</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>yet, still, even</t>
+          <t>thereafter, then</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Han har ikke kommet enda.</t>
+          <t>Vi gikk hjem, og deretter så vi en film.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>He has not arrived yet.</t>
+          <t>We went home, and then we watched a movie.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>endelig</t>
+          <t>distraherte</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>finally, at last</t>
+          <t>distracted</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Endelig er fredagen her!</t>
+          <t>Han distraherte meg mens jeg studerte.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Finally, Friday is here!</t>
+          <t>He distracted me while I was studying.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>enhet</t>
+          <t>drar</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>go, leave</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Hver enhet i bygningen har sin egen balkong.</t>
+          <t>Hun drar til butikken.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Each unit in the building has its own balcony.</t>
+          <t>She is going to the store.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>enkel</t>
+          <t>dro</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>simple, easy</t>
+          <t>went, left</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Oppskriften er veldig enkel å følge.</t>
+          <t>Han dro til butikken for å kjøpe melk.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>The recipe is very simple to follow.</t>
+          <t>He went to the store to buy milk.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ensomme</t>
+          <t>Dynetrekk</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>lonely</t>
+          <t>Duvet cover</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Han følte seg ensomme i den store byen.</t>
+          <t>Jeg kjøpte et nytt dynetrekk i går.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>He felt lonely in the big city.</t>
+          <t>I bought a new duvet cover yesterday.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>enten</t>
+          <t>egentelig</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>either</t>
+          <t>actually, really</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Du må velge enten den røde eller den blå bilen.</t>
+          <t>Han er egentlig fra Norge, men bor i Sverige.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>You have to choose either the red car or the blue car.</t>
+          <t>He is actually from Norway, but lives in Sweden.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>erfaring</t>
+          <t>egentlig</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>experience</t>
+          <t>actually, really</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Han har mye erfaring innen programmering.</t>
+          <t>Han er egentlig fra Norge, men bor i Sverige.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>He has a lot of experience in programming.</t>
+          <t>He is actually from Norway, but lives in Sweden.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>erstatte</t>
+          <t>emner</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>replace</t>
+          <t>topics, subjects</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Vi må erstatte den gamle datamaskinen med en ny.</t>
+          <t>Vi diskuterte forskjellige emner i klassen i dag.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>We need to replace the old computer with a new one.</t>
+          <t>We discussed various topics in class today.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ettermælet</t>
+          <t>enda</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>legacy, reputation left behind</t>
+          <t>yet, still, even</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Hans ettermælet vil alltid bli husket for hans generøsitet.</t>
+          <t>Han har ikke kommet enda.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>His legacy will always be remembered for his generosity.</t>
+          <t>He has not arrived yet.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>forbindelse</t>
+          <t>endelig</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>connection</t>
+          <t>finally, at last</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Vi mistet forbindelsen under samtalen.</t>
+          <t>Endelig er fredagen her!</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>We lost the connection during the call.</t>
+          <t>Finally, Friday is here!</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>forhandlingene</t>
+          <t>Eneste</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>the negotiations</t>
+          <t>Only, sole</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Forhandlingene mellom partene tok flere timer.</t>
+          <t>Han er den eneste som vet sannheten.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>The negotiations between the parties took several hours.</t>
+          <t>He is the only one who knows the truth.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>forholde</t>
+          <t>enhet</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>relate, behave</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Han vet ikke hvordan han skal forholde seg til situasjonen.</t>
+          <t>Hver enhet i bygningen har sin egen balkong.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>He doesn't know how to behave in the situation.</t>
+          <t>Each unit in the building has its own balcony.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>forsynt</t>
+          <t>enkel</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>satisfied or having had enough (usually in the context of eating)</t>
+          <t>simple, easy</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Jeg er forsynt, takk.</t>
+          <t>Oppskriften er veldig enkel å følge.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>I am satisfied, thank you.</t>
+          <t>The recipe is very simple to follow.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>fortjener</t>
+          <t>ensomme</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>deserve</t>
+          <t>lonely</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Du fortjener en belønning for alt ditt harde arbeid.</t>
+          <t>Han følte seg ensomme i den store byen.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>You deserve a reward for all your hard work.</t>
+          <t>He felt lonely in the big city.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>forutsatte</t>
+          <t>enten</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>assumed, presupposed</t>
+          <t>either</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Han forutsatte at alle var enige før han fortsatte møtet.</t>
+          <t>Du må velge enten den røde eller den blå bilen.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>He assumed that everyone agreed before he continued the meeting.</t>
+          <t>You have to choose either the red car or the blue car.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>gjennom</t>
+          <t>erfaring</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>through</t>
+          <t>experience</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Vi gikk gjennom parken.</t>
+          <t>Han har mye erfaring innen programmering.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>We walked through the park.</t>
+          <t>He has a lot of experience in programming.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>går mot</t>
+          <t>Erklæring</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>goes towards, approaches</t>
+          <t>Declaration, statement</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Han går mot butikken.</t>
+          <t>Han ga en offisiell erklæring til pressen.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>He goes towards the store.</t>
+          <t>He gave an official statement to the press.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>heller</t>
+          <t>erstatte</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>rather</t>
+          <t>replace</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Jeg vil heller spise pizza enn pasta.</t>
+          <t>Vi må erstatte den gamle datamaskinen med en ny.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>I would rather eat pizza than pasta.</t>
+          <t>We need to replace the old computer with a new one.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>hensikt</t>
+          <t>ettermælet</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>purpose, intention</t>
+          <t>legacy, reputation left behind</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Hun gjorde det med god hensikt.</t>
+          <t>Hans ettermælet vil alltid bli husket for hans generøsitet.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>She did it with good intention.</t>
+          <t>His legacy will always be remembered for his generosity.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>hevder</t>
+          <t>Etterretnings</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>claims</t>
+          <t>Intelligence (as in information gathering, especially in military, security, or police contexts)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Han hevder at han ikke var der den kvelden.</t>
+          <t>Etterretningsbyrået samlet informasjon om den mistenkte.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>He claims that he was not there that evening.</t>
+          <t>The intelligence agency gathered information about the suspect.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>hevn</t>
+          <t>Faktisk</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>revenge</t>
+          <t>Actually</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Han søkte hevn etter den store urettferdigheten.</t>
+          <t>Faktisk liker jeg ikke kaffe.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>He sought revenge after the great injustice.</t>
+          <t>Actually, I do not like coffee.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Hva slags</t>
+          <t>forbindelse</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>What kind of</t>
+          <t>connection</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Hva slags mat liker du?</t>
+          <t>Vi mistet forbindelsen under samtalen.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>What kind of food do you like?</t>
+          <t>We lost the connection during the call.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>hvilket som helst</t>
+          <t>Forening</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>whichever, any</t>
+          <t>Association, society, union</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Du kan velge hvilket som helst alternativ.</t>
+          <t>Han er medlem av en lokal forening.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>You can choose any option.</t>
+          <t>He is a member of a local association.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>imponert</t>
+          <t>foretrekke</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>impressed</t>
+          <t>to prefer</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Jeg er veldig imponert over dine ferdigheter.</t>
+          <t>Jeg foretrekker te fremfor kaffe.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>I am very impressed by your skills.</t>
+          <t>I prefer tea over coffee.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>innfør</t>
+          <t>forhandlingene</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>introduce</t>
+          <t>the negotiations</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Vi må innføre nye regler for å forbedre sikkerheten.</t>
+          <t>Forhandlingene mellom partene tok flere timer.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>We need to introduce new rules to improve safety.</t>
+          <t>The negotiations between the parties took several hours.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>innsats</t>
+          <t>forholde</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>effort, contribution</t>
+          <t>relate, behave</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Din innsats i prosjektet har vært uvurderlig.</t>
+          <t>Han vet ikke hvordan han skal forholde seg til situasjonen.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Your contribution to the project has been invaluable.</t>
+          <t>He doesn't know how to behave in the situation.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>kjedekollisjon</t>
+          <t>fornærmede</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pile-up, multiple vehicle collision</t>
+          <t>victim</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Det var en stor kjedekollisjon på motorveien i går.</t>
+          <t>Fornærmede vitnet i retten i dag.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>There was a big pile-up on the highway yesterday.</t>
+          <t>The victim testified in court today.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>kjemper</t>
+          <t>Forsvinner</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>fights, struggles, or giants (depending on context)</t>
+          <t>disappears</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Han kjemper mot en vanskelig sykdom.</t>
+          <t>Solen forsvinner bak horisonten.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>He is fighting against a difficult illness.</t>
+          <t>The sun disappears behind the horizon.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Klagar</t>
+          <t>forsynt</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Complains</t>
+          <t>satisfied or having had enough (usually in the context of eating)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Han klagar alltid på været.</t>
+          <t>Jeg er forsynt, takk.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>He always complains about the weather.</t>
+          <t>I am satisfied, thank you.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>klage</t>
+          <t>fortjener</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>complain</t>
+          <t>deserve</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Han liker å klage over været.</t>
+          <t>Du fortjener en belønning for alt ditt harde arbeid.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>He likes to complain about the weather.</t>
+          <t>You deserve a reward for all your hard work.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>klarte</t>
+          <t>forutsatte</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>managed</t>
+          <t>assumed, presupposed</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Hun klarte å løse problemet.</t>
+          <t>Han forutsatte at alle var enige før han fortsatte møtet.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>She managed to solve the problem.</t>
+          <t>He assumed that everyone agreed before he continued the meeting.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>krav</t>
+          <t>Frede</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>demand, requirement</t>
+          <t>to make peace, to calm down</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Han stiller høye krav til seg selv.</t>
+          <t>Han prøvde å frede situasjonen mellom de to gruppene.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>He sets high demands on himself.</t>
+          <t>He tried to calm down the situation between the two groups.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>krevende</t>
+          <t>fremfor</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>demanding</t>
+          <t>in preference to, rather than</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Dette er en veldig krevende oppgave.</t>
+          <t>Han valgte å lese en bok fremfor å se på TV.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>This is a very demanding task.</t>
+          <t>He chose to read a book rather than watch TV.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>krever</t>
+          <t>Fremover</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>requires, demands</t>
+          <t>Forward, ahead</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Denne oppgaven krever mye tid.</t>
+          <t>Vi må tenke fremover for å løse dette problemet.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>This task requires a lot of time.</t>
+          <t>We need to think ahead to solve this problem.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>letereter</t>
+          <t>gjennom</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>searching</t>
+          <t>through</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Han leter etter nøklene sine.</t>
+          <t>Vi gikk gjennom parken.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>He is searching for his keys.</t>
+          <t>We walked through the park.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>likevel</t>
+          <t>Graver vi frem</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>nevertheless, nonetheless</t>
+          <t>Are we digging up</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Han var veldig trøtt, men han gikk på jobb likevel.</t>
+          <t>Graver vi frem gamle minner når vi rydder i boden?</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>He was very tired, but he went to work nevertheless.</t>
+          <t>Are we digging up old memories when we clean out the storage room?</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>lyn</t>
+          <t>går mot</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>lightning</t>
+          <t>goes towards, approaches</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Vi så lynet slå ned i treet.</t>
+          <t>Han går mot butikken.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>We saw the lightning strike the tree.</t>
+          <t>He goes towards the store.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>lynnedslag</t>
+          <t>heller</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>lightning strike</t>
+          <t>rather</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Under tordenværet så vi et kraftig lynnedslag nær huset.</t>
+          <t>Jeg vil heller spise pizza enn pasta.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>During the thunderstorm, we saw a powerful lightning strike near the house.</t>
+          <t>I would rather eat pizza than pasta.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>mangler</t>
+          <t>hemmelige</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>lacks, is missing</t>
+          <t>secret</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Han mangler en bok.</t>
+          <t>De delte hemmelige historier med hverandre.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>He is missing a book.</t>
+          <t>They shared secret stories with each other.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>markedsføre</t>
+          <t>hensikt</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>to market</t>
+          <t>purpose, intention</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Bedriften planlegger å markedsføre det nye produktet neste måned.</t>
+          <t>Hun gjorde det med god hensikt.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>The company plans to market the new product next month.</t>
+          <t>She did it with good intention.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>mener</t>
+          <t>hevder</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>thinks, believes, means</t>
+          <t>claims</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Hun mener at vi bør dra nå.</t>
+          <t>Han hevder at han ikke var der den kvelden.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>She thinks that we should leave now.</t>
+          <t>He claims that he was not there that evening.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>menneske</t>
+          <t>hevn</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>revenge</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Hvert menneske er unikt.</t>
+          <t>Han søkte hevn etter den store urettferdigheten.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Every human is unique.</t>
+          <t>He sought revenge after the great injustice.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>minner</t>
+          <t>Hva slags</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>memories</t>
+          <t>What kind of</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Barndomsminnene mine er veldig kjære for meg.</t>
+          <t>Hva slags mat liker du?</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>My childhood memories are very dear to me.</t>
+          <t>What kind of food do you like?</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>naturligvis</t>
+          <t>hvilket som helst</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>naturally, of course</t>
+          <t>whichever, any</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Naturligvis kan du låne bilen min.</t>
+          <t>Du kan velge hvilket som helst alternativ.</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Naturally, you can borrow my car.</t>
+          <t>You can choose any option.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>nedover</t>
+          <t>imponert</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>downwards</t>
+          <t>impressed</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Vi gikk nedover bakken sammen.</t>
+          <t>Jeg er veldig imponert over dine ferdigheter.</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>We walked down the hill together.</t>
+          <t>I am very impressed by your skills.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ond</t>
+          <t>innfør</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>evil, wicked</t>
+          <t>introduce</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Han hadde en ond plan.</t>
+          <t>Vi må innføre nye regler for å forbedre sikkerheten.</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>He had an evil plan.</t>
+          <t>We need to introduce new rules to improve safety.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>oppdaget</t>
+          <t>Innrømmer</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>discovered</t>
+          <t>Admits</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Han oppdaget en sjelden fugl i skogen.</t>
+          <t>Han innrømmer at han tok feil.</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>He discovered a rare bird in the forest.</t>
+          <t>He admits that he was wrong.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>opplever</t>
+          <t>innsats</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>experiences</t>
+          <t>effort, contribution</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Hun opplever mye glede i sitt nye jobb.</t>
+          <t>Din innsats i prosjektet har vært uvurderlig.</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>She experiences a lot of joy in her new job.</t>
+          <t>Your contribution to the project has been invaluable.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>oppnådde</t>
+          <t>Kjapt</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>achieved</t>
+          <t>Quickly</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Hun oppnådde sine mål gjennom hardt arbeid.</t>
+          <t>Kan du gjøre det kjapt?</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>She achieved her goals through hard work.</t>
+          <t>Can you do it quickly?</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>overfladiske</t>
+          <t>kjedekollisjon</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>superficial</t>
+          <t>pile-up, multiple vehicle collision</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Mange mennesker er bare interessert i overfladiske detaljer.</t>
+          <t>Det var en stor kjedekollisjon på motorveien i går.</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Many people are only interested in superficial details.</t>
+          <t>There was a big pile-up on the highway yesterday.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>oversetter</t>
+          <t>kjemper</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>fights, struggles, or giants (depending on context)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Han jobber som oversetter.</t>
+          <t>Han kjemper mot en vanskelig sykdom.</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>He works as a translator.</t>
+          <t>He is fighting against a difficult illness.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>pleier</t>
+          <t>Klagar</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>usually do, tend to</t>
+          <t>Complains</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Hun pleier å spise frokost klokka syv.</t>
+          <t>Han klagar alltid på været.</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>She usually eats breakfast at seven.</t>
+          <t>He always complains about the weather.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>påkjørt av</t>
+          <t>klage</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>run over by</t>
+          <t>complain</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Han ble påkjørt av en bil mens han krysset veien.</t>
+          <t>Han liker å klage over været.</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>He was run over by a car while crossing the road.</t>
+          <t>He likes to complain about the weather.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>rammes av</t>
+          <t>Klarer seg</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>be affected by, be hit by</t>
+          <t>manages, gets by, copes</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Mange bedrifter ble hardt rammet av pandemien.</t>
+          <t>Hun klarer seg godt på egen hånd.</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Many businesses were severely affected by the pandemic.</t>
+          <t>She manages well on her own.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>regjering</t>
+          <t>klarte</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>government</t>
+          <t>managed</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Regjeringen vil innføre nye skatteregler neste år.</t>
+          <t>Hun klarte å løse problemet.</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>The government will introduce new tax rules next year.</t>
+          <t>She managed to solve the problem.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>regn</t>
+          <t>krav</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>rain</t>
+          <t>demand, requirement</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Det kommer til å regne i dag.</t>
+          <t>Han stiller høye krav til seg selv.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>It is going to rain today.</t>
+          <t>He sets high demands on himself.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>regning</t>
+          <t>krevende</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>bill, calculation</t>
+          <t>demanding</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Kan jeg få regningen, vær så snill?</t>
+          <t>Dette er en veldig krevende oppgave.</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Can I have the bill, please?</t>
+          <t>This is a very demanding task.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>rettferdighet</t>
+          <t>krever</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>justice</t>
+          <t>requires, demands</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Alle fortjener rettferdighet og like muligheter.</t>
+          <t>Denne oppgaven krever mye tid.</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Everyone deserves justice and equal opportunities.</t>
+          <t>This task requires a lot of time.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>samenlegg</t>
+          <t>letereter</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>jointly, together</t>
+          <t>searching</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Vi må jobbe sammenlegg for å fullføre prosjektet i tide.</t>
+          <t>Han leter etter nøklene sine.</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>We need to work together to complete the project on time.</t>
+          <t>He is searching for his keys.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>samlet</t>
+          <t>Leve</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>collected, gathered, total</t>
+          <t>Live</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Vi samlet inn mye penger til veldedighet.</t>
+          <t>Vi ønsker alle å leve et langt og lykkelig liv.</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>We collected a lot of money for charity.</t>
+          <t>We all want to live a long and happy life.</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>sammenhengen</t>
+          <t>likevel</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>the context, the connection</t>
+          <t>nevertheless, nonetheless</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>For å forstå vitsen, må du kjenne til sammenhengen.</t>
+          <t>Han var veldig trøtt, men han gikk på jobb likevel.</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>To understand the joke, you need to know the context.</t>
+          <t>He was very tired, but he went to work nevertheless.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>seier</t>
+          <t>lyn</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>victory</t>
+          <t>lightning</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Laget feiret sin seier etter kampen.</t>
+          <t>Vi så lynet slå ned i treet.</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>The team celebrated their victory after the match.</t>
+          <t>We saw the lightning strike the tree.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>selvsagt</t>
+          <t>lynnedslag</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>of course, naturally</t>
+          <t>lightning strike</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Selvsagt kan du låne bilen min i morgen.</t>
+          <t>Under tordenværet så vi et kraftig lynnedslag nær huset.</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Of course, you can borrow my car tomorrow.</t>
+          <t>During the thunderstorm, we saw a powerful lightning strike near the house.</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>skjemavelde</t>
+          <t>Løven</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>bureaucracy</t>
+          <t>The lion</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Mange mener at skjemavelde gjør prosesser tregere i offentlige etater.</t>
+          <t>Løven brøler i dyreparken.</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Many believe that bureaucracy slows down processes in public agencies.</t>
+          <t>The lion roars in the zoo.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>skred frem</t>
+          <t>mangler</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>surged forward</t>
+          <t>lacks, is missing</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Folkemengden skred frem mot scenen i spenning.</t>
+          <t>Han mangler en bok.</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>The crowd surged forward towards the stage in excitement.</t>
+          <t>He is missing a book.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>skrive inn</t>
+          <t>markedsføre</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>write in, enter</t>
+          <t>to market</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Kan du skrive inn navnet ditt her?</t>
+          <t>Bedriften planlegger å markedsføre det nye produktet neste måned.</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Can you write your name here?</t>
+          <t>The company plans to market the new product next month.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>slakt av</t>
+          <t>mener</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>slaughter of</t>
+          <t>thinks, believes, means</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Bonden forbereder seg på slakt av grisene før vinteren.</t>
+          <t>Hun mener at vi bør dra nå.</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>The farmer is preparing for the slaughter of the pigs before winter.</t>
+          <t>She thinks that we should leave now.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>slengende</t>
+          <t>menneske</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>swinging, flinging</t>
+          <t>human</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Han gikk ned gaten med en slengende gange.</t>
+          <t>Hvert menneske er unikt.</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>He walked down the street with a swinging gait.</t>
+          <t>Every human is unique.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>slå fast</t>
+          <t>mens</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>to assert, to establish, to determine</t>
+          <t>while</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Vi må slå fast hva som faktisk skjedde.</t>
+          <t>Jeg leser en bok mens jeg drikker te.</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>We need to determine what actually happened.</t>
+          <t>I read a book while I drink tea.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>spre</t>
+          <t>minner</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>to spread</t>
+          <t>memories</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Han liker å spre glede blant vennene sine.</t>
+          <t>Barndomsminnene mine er veldig kjære for meg.</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>He likes to spread joy among his friends.</t>
+          <t>My childhood memories are very dear to me.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>stjernerytter</t>
+          <t>Mistet</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>star rider</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Han drømte om å bli en stjernerytter og reise gjennom galaksene.</t>
+          <t>Jeg har mistet nøklene mine.</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>He dreamed of becoming a star rider and traveling through the galaxies.</t>
+          <t>I have lost my keys.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>større grad</t>
+          <t>naturligvis</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>greater extent</t>
+          <t>naturally, of course</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Han er involvert i prosjektet i en større grad enn før.</t>
+          <t>Naturligvis kan du låne bilen min.</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>He is involved in the project to a greater extent than before.</t>
+          <t>Naturally, you can borrow my car.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>støtte</t>
+          <t>nedover</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>support</t>
+          <t>downwards</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Han trenger din støtte for å lykkes.</t>
+          <t>Vi gikk nedover bakken sammen.</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>He needs your support to succeed.</t>
+          <t>We walked down the hill together.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>sunt bondevett</t>
+          <t>ond</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>common sense</t>
+          <t>evil, wicked</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Det er sunt bondevett å ta på seg varme klær når det er kaldt ute.</t>
+          <t>Han hadde en ond plan.</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>It is common sense to wear warm clothes when it is cold outside.</t>
+          <t>He had an evil plan.</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>svekker</t>
+          <t>oppdaget</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>weakens</t>
+          <t>discovered</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Denne medisinen svekker immunforsvaret ditt.</t>
+          <t>Han oppdaget en sjelden fugl i skogen.</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>This medicine weakens your immune system.</t>
+          <t>He discovered a rare bird in the forest.</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>syn</t>
+          <t>opplever</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>sight, vision</t>
+          <t>experiences</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Hans syn er ikke like godt som det en gang var.</t>
+          <t>Hun opplever mye glede i sitt nye jobb.</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>His sight is not as good as it once was.</t>
+          <t>She experiences a lot of joy in her new job.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>synes</t>
+          <t>oppnådde</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>to think, to seem, to appear</t>
+          <t>achieved</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Jeg synes det er en god idé.</t>
+          <t>Hun oppnådde sine mål gjennom hardt arbeid.</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>I think it is a good idea.</t>
+          <t>She achieved her goals through hard work.</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>syns</t>
+          <t>Oppsikt</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>to be seen, to seem, to appear</t>
+          <t>Attention, sensation</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Det syns at han er glad.</t>
+          <t>Hans oppfinnelse vakte stor oppsikt.</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>It appears that he is happy.</t>
+          <t>His invention attracted great attention.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>temaer</t>
+          <t>Ordningen</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>themes</t>
+          <t>the arrangement, the system, the order</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Vi diskuterte ulike temaer i klassen i dag.</t>
+          <t>Ordningen med å sortere avfall gjør det enklere å resirkulere.</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>We discussed various themes in class today.</t>
+          <t>The arrangement of sorting waste makes it easier to recycle.</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>trist</t>
+          <t>overfladiske</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>superficial</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Det er trist å se deg så lei deg.</t>
+          <t>Mange mennesker er bare interessert i overfladiske detaljer.</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>It is sad to see you so upset.</t>
+          <t>Many people are only interested in superficial details.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>turneringen</t>
+          <t>oversetter</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>the tournament</t>
+          <t>translator</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Turneringen starter neste uke.</t>
+          <t>Han jobber som oversetter.</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>The tournament starts next week.</t>
+          <t>He works as a translator.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>tør</t>
+          <t>pleier</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>dare</t>
+          <t>usually do, tend to</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Tør du å hoppe fra ti-meteren?</t>
+          <t>Hun pleier å spise frokost klokka syv.</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Do you dare to jump from the ten-meter board?</t>
+          <t>She usually eats breakfast at seven.</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>uansett</t>
+          <t>Pågang</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>regardless</t>
+          <t>rush, pressure, demand</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Vi går ut uansett været.</t>
+          <t>Det var stor pågang på billetter til konserten.</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>We are going out regardless of the weather.</t>
+          <t>There was a high demand for tickets to the concert.</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>underskudd</t>
+          <t>påkjørt av</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>deficit</t>
+          <t>run over by</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Selskapet rapporterte et stort underskudd forrige kvartal.</t>
+          <t>Han ble påkjørt av en bil mens han krysset veien.</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>The company reported a large deficit last quarter.</t>
+          <t>He was run over by a car while crossing the road.</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>underveis</t>
+          <t>rammes av</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>on the way, underway</t>
+          <t>be affected by, be hit by</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Vi kan stoppe og kjøpe mat underveis.</t>
+          <t>Mange bedrifter ble hardt rammet av pandemien.</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>We can stop and buy food on the way.</t>
+          <t>Many businesses were severely affected by the pandemic.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Utfordrende</t>
+          <t>Reddet</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Challenging</t>
+          <t>Saved</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Denne matteoppgaven er veldig utfordrende.</t>
+          <t>Han reddet katten ut av treet.</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>This math problem is very challenging.</t>
+          <t>He saved the cat from the tree.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>uttrykke</t>
+          <t>regjering</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>to express</t>
+          <t>government</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Han brukte musikk til å uttrykke følelsene sine.</t>
+          <t>Regjeringen vil innføre nye skatteregler neste år.</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>He used music to express his feelings.</t>
+          <t>The government will introduce new tax rules next year.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>uvurderlig</t>
+          <t>regn</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>invaluable</t>
+          <t>rain</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Din støtte har vært uvurderlig for meg.</t>
+          <t>Det kommer til å regne i dag.</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Your support has been invaluable to me.</t>
+          <t>It is going to rain today.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>vanvittig</t>
+          <t>regning</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>insane, crazy, incredible</t>
+          <t>bill, calculation</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Han kjørte i en vanvittig fart nedover veien.</t>
+          <t>Kan jeg få regningen, vær så snill?</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>He drove at an insane speed down the road.</t>
+          <t>Can I have the bill, please?</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>vegne</t>
+          <t>retten</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>on behalf of</t>
+          <t>the court</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Jeg snakker på vegne av hele teamet.</t>
+          <t>Retten vil ta en pause nå.</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>I speak on behalf of the entire team.</t>
+          <t>The court will take a break now.</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>vekker</t>
+          <t>Rettes opp</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>alarm clock</t>
+          <t>to be corrected, to be straightened up</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Jeg setter vekkeren på 7 om morgenen.</t>
+          <t>Feilene i dokumentet må rettes opp før fristen.</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>I set the alarm clock for 7 in the morning.</t>
+          <t>The errors in the document need to be corrected before the deadline.</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>vestlig</t>
+          <t>rettferdighet</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>western</t>
+          <t>justice</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Vinden kommer fra en vestlig retning.</t>
+          <t>Alle fortjener rettferdighet og like muligheter.</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>The wind is coming from a western direction.</t>
+          <t>Everyone deserves justice and equal opportunities.</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>virkelig</t>
+          <t>Saksøkes</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>real, really, actual</t>
+          <t>to be sued</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Er dette virkelig sant?</t>
+          <t>Firmaet saksøkes for brudd på kontrakten.</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Is this really true?</t>
+          <t>The company is being sued for breach of contract.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>vitenskap</t>
+          <t>samenlegg</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>science</t>
+          <t>jointly, together</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Vitenskap hjelper oss å forstå verden bedre.</t>
+          <t>Vi må jobbe sammenlegg for å fullføre prosjektet i tide.</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Science helps us to understand the world better.</t>
+          <t>We need to work together to complete the project on time.</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>vært innom</t>
+          <t>samlet</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>been by, visited, stopped by</t>
+          <t>collected, gathered, total</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Jeg har vært innom butikken på vei hjem.</t>
+          <t>Vi samlet inn mye penger til veldedighet.</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>I stopped by the store on my way home.</t>
+          <t>We collected a lot of money for charity.</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ånd</t>
+          <t>sammenhengen</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>spirit, ghost</t>
+          <t>the context, the connection</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Han følte en kald ånd passere gjennom rommet.</t>
+          <t>For å forstå vitsen, må du kjenne til sammenhengen.</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>He felt a cold spirit pass through the room.</t>
+          <t>To understand the joke, you need to know the context.</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
+          <t>Sammenlignet</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Compared</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Sammenlignet med fjoråret har vi doblet salget.</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Compared to last year, we have doubled our sales.</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>sannheten</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>the truth</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Han fortalte meg endelig sannheten.</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>He finally told me the truth.</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>seier</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>victory</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Laget feiret sin seier etter kampen.</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>The team celebrated their victory after the match.</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>selvsagt</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>of course, naturally</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Selvsagt kan du låne bilen min i morgen.</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Of course, you can borrow my car tomorrow.</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Senere</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Later</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Vi kan snakke om dette senere.</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>We can talk about this later.</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Seneste</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Latest, most recent</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Han ankom på den seneste flyvningen.</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>He arrived on the latest flight.</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Siktet</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Charged (as in accused of a crime)</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Personen ble siktet for tyveri.</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>The person was charged with theft.</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>skjemavelde</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>bureaucracy</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Mange mener at skjemavelde gjør prosesser tregere i offentlige etater.</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Many believe that bureaucracy slows down processes in public agencies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>skred frem</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>surged forward</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Folkemengden skred frem mot scenen i spenning.</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>The crowd surged forward towards the stage in excitement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>skrive inn</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>write in, enter</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Kan du skrive inn navnet ditt her?</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Can you write your name here?</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Skuddveksling</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Gunfight, shootout</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Politiet ble involvert i en skuddveksling med gjerningsmannen.</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>The police were involved in a shootout with the perpetrator.</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>slakt av</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>slaughter of</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Bonden forbereder seg på slakt av grisene før vinteren.</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>The farmer is preparing for the slaughter of the pigs before winter.</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>slengende</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>swinging, flinging</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Han gikk ned gaten med en slengende gange.</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>He walked down the street with a swinging gait.</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>slå fast</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>to assert, to establish, to determine</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Vi må slå fast hva som faktisk skjedde.</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>We need to determine what actually happened.</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Snarveier</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Shortcuts</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Han bruker alltid snarveier for å spare tid.</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>He always uses shortcuts to save time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>spre</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>to spread</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Han liker å spre glede blant vennene sine.</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>He likes to spread joy among his friends.</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>stjernerytter</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>star rider</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Han drømte om å bli en stjernerytter og reise gjennom galaksene.</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>He dreamed of becoming a star rider and traveling through the galaxies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Straffekonk</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Penalty shootout</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Straffekonken vil avgjøre hvilket lag som går videre i turneringen.</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>The penalty shootout will decide which team advances in the tournament.</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Strøk</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>district or area</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Han bor i et fint strøk av byen.</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>He lives in a nice district of the city.</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>større grad</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>greater extent</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Han er involvert i prosjektet i en større grad enn før.</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>He is involved in the project to a greater extent than before.</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>støtte</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Han trenger din støtte for å lykkes.</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>He needs your support to succeed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>sunt bondevett</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>common sense</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Det er sunt bondevett å ta på seg varme klær når det er kaldt ute.</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>It is common sense to wear warm clothes when it is cold outside.</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>svekker</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>weakens</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Denne medisinen svekker immunforsvaret ditt.</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>This medicine weakens your immune system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>syn</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>sight, vision</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Hans syn er ikke like godt som det en gang var.</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>His sight is not as good as it once was.</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>synes</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>to think, to seem, to appear</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Jeg synes det er en god idé.</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>I think it is a good idea.</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>syns</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>to be seen, to seem, to appear</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Det syns at han er glad.</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>It appears that he is happy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>temaer</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>themes</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Vi diskuterte ulike temaer i klassen i dag.</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>We discussed various themes in class today.</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>tomme felt</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>empty spaces</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Det er mange tomme felt i skjemaet som må fylles ut.</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>There are many empty spaces in the form that need to be filled out.</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>tomme felt</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>empty space</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Hun så på det tomme feltet hvor huset en gang sto.</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>She looked at the empty space where the house once stood.</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>trist</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Det er trist å se deg så lei deg.</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>It is sad to see you so upset.</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>turneringen</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>the tournament</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Turneringen starter neste uke.</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>The tournament starts next week.</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>tør</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>dare</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Tør du å hoppe fra ti-meteren?</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Do you dare to jump from the ten-meter board?</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>uansett</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>regardless</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Vi går ut uansett været.</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>We are going out regardless of the weather.</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Uheldig</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Unfortunate</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Det var uheldig at han mistet nøklene sine.</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>It was unfortunate that he lost his keys.</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>underskudd</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>deficit</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Selskapet rapporterte et stort underskudd forrige kvartal.</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>The company reported a large deficit last quarter.</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>underveis</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>on the way, underway</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Vi kan stoppe og kjøpe mat underveis.</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>We can stop and buy food on the way.</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Utfordrende</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Challenging</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Denne matteoppgaven er veldig utfordrende.</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>This math problem is very challenging.</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>uttrykke</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>to express</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Han brukte musikk til å uttrykke følelsene sine.</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>He used music to express his feelings.</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>uvurderlig</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>invaluable</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Din støtte har vært uvurderlig for meg.</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Your support has been invaluable to me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>vanvittig</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>insane, crazy, incredible</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Han kjørte i en vanvittig fart nedover veien.</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>He drove at an insane speed down the road.</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Var med på</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Was part of</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Hun var med på møtet i går.</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>She was part of the meeting yesterday.</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>vegne</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>on behalf of</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Jeg snakker på vegne av hele teamet.</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>I speak on behalf of the entire team.</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>vekker</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>alarm clock</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Jeg setter vekkeren på 7 om morgenen.</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>I set the alarm clock for 7 in the morning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Vekkjer</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Awakens</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Lyset vekkjer fuglene om morgenen.</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>The light awakens the birds in the morning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Veksten</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>The growth</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Veksten i økonomien er positiv.</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>The growth in the economy is positive.</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Vern</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Vi må sørge for vern av truede dyrearter.</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>We must ensure the protection of endangered species.</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>vestlig</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>western</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Vinden kommer fra en vestlig retning.</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>The wind is coming from a western direction.</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>virkelig</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>real, really, actual</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Er dette virkelig sant?</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Is this really true?</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Viser til</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Refers to</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>I dokumentet viser til tidligere avtaler.</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>The document refers to previous agreements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>vitenskap</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>science</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Vitenskap hjelper oss å forstå verden bedre.</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Science helps us to understand the world better.</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>vært innom</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>been by, visited, stopped by</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Jeg har vært innom butikken på vei hjem.</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>I stopped by the store on my way home.</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>ånd</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>spirit, ghost</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Han følte en kald ånd passere gjennom rommet.</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>He felt a cold spirit pass through the room.</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
           <t>årsaken</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B173" t="inlineStr">
         <is>
           <t>the reason</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C173" t="inlineStr">
         <is>
           <t>Årsaken til problemet er ikke kjent.</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="D173" t="inlineStr">
         <is>
           <t>The reason for the problem is not known.</t>
         </is>
